--- a/ckan-data-dictionary-API-tool/CEDEN_Tissue_Data_Dictionary.xlsx
+++ b/ckan-data-dictionary-API-tool/CEDEN_Tissue_Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/david_altare_waterboards_ca_gov/Documents/projects/CA_data_portal/CEDEN/data_dictionaries/data_dictionary_conversion/tissue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/david_altare_waterboards_ca_gov/Documents/projects/CA_data_portal/ckan-data-dictionary-API-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BDABECCB-D3D5-4946-9D34-A29ACED6EBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{120F588C-DE66-4AC7-AC4E-AC65CC96C62C}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{BDABECCB-D3D5-4946-9D34-A29ACED6EBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F051A48-D152-4993-8778-71315A0BFB7F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEDEN_Tissue_Data_Dictionary" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="335">
   <si>
     <t>column</t>
   </si>
@@ -1285,6 +1285,18 @@
   </si>
   <si>
     <t>numeric</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -2123,9 +2135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2163,7 +2175,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2269,7 +2281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2411,7 +2423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2421,9 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2437,16 +2447,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>333</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3</v>
+        <v>334</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
